--- a/ANAB.xlsx
+++ b/ANAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AC281-1214-43CC-8E30-3D0108E5F606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF0A320-A2E6-48E9-8511-2EC3CE6C6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24090" yWindow="2325" windowWidth="21795" windowHeight="16575" xr2:uid="{BBA856EE-C4D3-4C8B-B073-7973A3151090}"/>
+    <workbookView xWindow="39720" yWindow="940" windowWidth="22990" windowHeight="14710" xr2:uid="{BBA856EE-C4D3-4C8B-B073-7973A3151090}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Price</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ANB033</t>
   </si>
   <si>
-    <t>CD122</t>
-  </si>
-  <si>
     <t>ANB101</t>
   </si>
   <si>
@@ -111,6 +108,33 @@
   </si>
   <si>
     <t>cobolimab</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>VNDA</t>
+  </si>
+  <si>
+    <t>Jemperli</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>CD122 (IL-15, IL-2)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
@@ -231,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +270,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,99 +622,114 @@
   <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="9"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>30.426682</v>
+        <v>27.996963000000001</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>730.24036799999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>852.78749298000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="H5" s="9"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>191.581+238.536+27.914</f>
-        <v>458.03099999999995</v>
+        <f>44.298+221.412+27.996</f>
+        <v>293.70600000000002</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="H6" s="9"/>
       <c r="J6" t="s">
         <v>4</v>
@@ -686,44 +738,55 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="H7" s="9"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>272.20936800000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>559.08149298000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="11"/>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="H9" s="9"/>
       <c r="J9" t="s">
         <v>7</v>
       </c>
@@ -734,7 +797,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="9"/>
       <c r="J10" t="s">
         <v>8</v>
       </c>
@@ -745,7 +818,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>9</v>
       </c>
